--- a/OR/SensitivityExcelExam.xlsx
+++ b/OR/SensitivityExcelExam.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasvogel/Documents/Code/SimulationExam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasvogel/Documents/Code/SimulationExam/OR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0269AD6-1462-D345-BEBA-343463C3E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9E7C0-BA20-294E-9FF0-665F9624E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="28" r:id="rId1"/>
-    <sheet name="Sensitivity Report 1" sheetId="29" r:id="rId2"/>
-    <sheet name="Limits Report 1" sheetId="30" r:id="rId3"/>
+    <sheet name="Answer Report 1" sheetId="32" r:id="rId1"/>
+    <sheet name="Sensitivity Report 1" sheetId="33" r:id="rId2"/>
+    <sheet name="Limits Report 1" sheetId="34" r:id="rId3"/>
     <sheet name="LP" sheetId="1" r:id="rId4"/>
-    <sheet name="LP (2)" sheetId="31" r:id="rId5"/>
+    <sheet name="Sensitivity" sheetId="31" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">LP!$C$19:$G$19</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'LP (2)'!$C$19:$G$19</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Sensitivity!$C$19:$G$19</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
@@ -33,19 +33,19 @@
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">LP!$C$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'LP (2)'!$C$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Sensitivity!$C$25</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">LP!$C$26</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'LP (2)'!$C$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Sensitivity!$C$26</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">LP!$C$27</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'LP (2)'!$C$27</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Sensitivity!$C$27</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">LP!$C$28</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'LP (2)'!$C$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Sensitivity!$C$28</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">LP!$C$29</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'LP (2)'!$C$29</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Sensitivity!$C$29</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">LP!$C$30</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'LP (2)'!$C$30</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Sensitivity!$C$30</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">LP!$C$31</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'LP (2)'!$C$31</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Sensitivity!$C$31</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
@@ -65,7 +65,7 @@
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">LP!$C$22</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'LP (2)'!$C$22</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Sensitivity!$C$22</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
@@ -85,19 +85,19 @@
     <definedName name="solver_rel7" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">LP!$E$25</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'LP (2)'!$E$25</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Sensitivity!$E$25</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">LP!$E$26</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'LP (2)'!$E$26</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Sensitivity!$E$26</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">LP!$E$27</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'LP (2)'!$E$27</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Sensitivity!$E$27</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">LP!$E$28</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'LP (2)'!$E$28</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Sensitivity!$E$28</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">LP!$E$29</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">'LP (2)'!$E$29</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">Sensitivity!$E$29</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">LP!$E$30</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">'LP (2)'!$E$30</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">Sensitivity!$E$30</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">LP!$E$31</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">'LP (2)'!$E$31</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">Sensitivity!$E$31</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
   <si>
     <t>Variable Cells</t>
   </si>
@@ -463,34 +463,28 @@
     <t>What happens if we increase the demand for PIII?</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Worksheet: [SensitivityExcelExam.xlsx]LP</t>
   </si>
   <si>
-    <t>Report Created: 02.06.22 11:40:46</t>
-  </si>
-  <si>
-    <t>Solution Time: 496,109 Seconds.</t>
-  </si>
-  <si>
-    <t>Revenue Z</t>
-  </si>
-  <si>
-    <t>Revenue (in 10k SEK)</t>
-  </si>
-  <si>
     <t>Demand PIII</t>
+  </si>
+  <si>
+    <t>Profit (in 10k SEK)</t>
+  </si>
+  <si>
+    <t>Report Created: 08.06.22 18:25:48</t>
+  </si>
+  <si>
+    <t>Solution Time: 511,823 Seconds.</t>
+  </si>
+  <si>
+    <t>Profit (in 10k SEK) Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -944,7 +938,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1032,12 +1025,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1055,16 +1042,19 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,10 +1168,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LP (2)'!$J$6:$J$11</c:f>
+              <c:f>Sensitivity!$J$6:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1199,16 +1189,91 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LP (2)'!$K$6:$K$11</c:f>
+              <c:f>Sensitivity!$K$6:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>140400</c:v>
                 </c:pt>
@@ -1222,10 +1287,85 @@
                   <c:v>143400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143400</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143400</c:v>
+                  <c:v>144600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>151200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>151800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>153600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>154800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>156800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>156800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>156800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,16 +2211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>779858</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>164702</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2474514</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13890</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2370,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EF0724-B3F5-FF42-B77B-F9978E002DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0409E4-6FC5-4E44-92FC-20520DC2FB7D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2393,12 +2533,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2420,7 +2560,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2468,12 +2608,12 @@
         <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="10">
+        <v>104</v>
+      </c>
+      <c r="D16" s="55">
         <v>140400</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="55">
         <v>140400</v>
       </c>
     </row>
@@ -2616,7 +2756,7 @@
       <c r="C30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="56">
         <v>32000</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2636,7 +2776,7 @@
       <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="56">
         <v>61600</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2656,7 +2796,7 @@
       <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="56">
         <v>18000</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2676,7 +2816,7 @@
       <c r="C33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="56">
         <v>16000</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2696,7 +2836,7 @@
       <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="56">
         <v>2000</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2716,7 +2856,7 @@
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="56">
         <v>32800</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2736,7 +2876,7 @@
       <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="57">
         <v>28000</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2755,11 +2895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F107065-446F-7849-837B-AFEFAED76D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CA2B0D-27C0-7C44-9A73-0EB465D8C4CD}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2780,12 +2920,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2851,7 +2991,7 @@
       <c r="F9" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="2">
         <v>1E+30</v>
       </c>
       <c r="H9" s="2">
@@ -3164,7 +3304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44B1D0A-F945-8942-BC96-53F6FCA55AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83972181-CC7A-A249-B2BE-B88FB52DBBC0}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3175,14 +3315,14 @@
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3192,12 +3332,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3224,9 +3364,9 @@
         <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="10">
+        <v>104</v>
+      </c>
+      <c r="D8" s="55">
         <v>140400</v>
       </c>
     </row>
@@ -3286,13 +3426,13 @@
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="58">
         <v>85</v>
       </c>
       <c r="I13" s="6">
         <v>250</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="58">
         <v>18835</v>
       </c>
     </row>
@@ -3309,13 +3449,13 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="58">
         <v>110</v>
       </c>
       <c r="I14" s="6">
         <v>398.5</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="58">
         <v>20035</v>
       </c>
     </row>
@@ -3332,13 +3472,13 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="58">
         <v>125</v>
       </c>
       <c r="I15" s="6">
         <v>597</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="58">
         <v>21020</v>
       </c>
     </row>
@@ -3353,9 +3493,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="48"/>
+      <c r="G16" s="58"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -3368,9 +3508,9 @@
         <v>28000</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="55"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3381,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -3396,726 +3536,726 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
         <v>36000</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="46">
         <v>216000</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <v>0.5</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46">
         <v>18000</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="51">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
         <v>16000</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="51">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46">
         <v>2000</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="51">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46">
         <v>34000</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
         <v>1</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <v>1</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="47">
         <v>28000</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
         <v>0</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>20</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>16000</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="40">
         <v>14800</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="40">
         <v>2000</v>
       </c>
-      <c r="F19" s="41">
-        <v>0</v>
-      </c>
-      <c r="G19" s="32">
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31">
         <v>28000</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="50" cm="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="45" cm="1">
         <f t="array" ref="C22">MMULT(C5:G5,TRANSPOSE(C19:G19))</f>
         <v>140400</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="53" cm="1">
+      <c r="C25" s="48" cm="1">
         <f t="array" ref="C25">MMULT($C6:$G6,TRANSPOSE($C$19:$G$19))</f>
         <v>32000</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="50">
         <f>H6</f>
         <v>36000</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="I25" s="11"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="53" cm="1">
+      <c r="C26" s="48" cm="1">
         <f t="array" ref="C26">MMULT($C7:$G7,TRANSPOSE($C$19:$G$19))</f>
         <v>61600</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="50">
         <f>H7</f>
         <v>216000</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="I26" s="11"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="53" cm="1">
+      <c r="C27" s="48" cm="1">
         <f t="array" ref="C27">MMULT($C8:$G8,TRANSPOSE($C$19:$G$19))</f>
         <v>18000</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="50">
         <f t="shared" ref="E27:E31" si="0">H8</f>
         <v>18000</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="I27" s="11"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="53" cm="1">
+      <c r="C28" s="48" cm="1">
         <f t="array" ref="C28">MMULT($C9:$G9,TRANSPOSE($C$19:$G$19))</f>
         <v>16000</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="50">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="53" cm="1">
+      <c r="C29" s="48" cm="1">
         <f t="array" ref="C29">MMULT($C10:$G10,TRANSPOSE($C$19:$G$19))</f>
         <v>2000</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="50">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="I29" s="11"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="53" cm="1">
+      <c r="C30" s="48" cm="1">
         <f t="array" ref="C30">MMULT($C11:$G11,TRANSPOSE($C$19:$G$19))</f>
         <v>32800</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="50">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="I30" s="11"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="54" cm="1">
+      <c r="C31" s="49" cm="1">
         <f t="array" ref="C31">MMULT($C12:$G12,TRANSPOSE($C$19:$G$19))</f>
         <v>28000</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="51">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="I31" s="11"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="20">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="20">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>3</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>3.4</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>2</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="20">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>1</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4128,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C126547-C494-2141-8B55-89B3BDFB3098}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="50" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -4145,773 +4285,928 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="59" t="s">
-        <v>104</v>
+      <c r="H5" s="24"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
         <v>36000</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="58">
+      <c r="I6" s="11"/>
+      <c r="J6" s="52">
         <v>2000</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="52">
         <v>140400</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="46">
         <v>216000</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="58">
+      <c r="I7" s="11"/>
+      <c r="J7" s="52">
         <v>2600</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="52">
         <v>141600</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <v>0.5</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46">
         <v>18000</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="58">
+      <c r="I8" s="11"/>
+      <c r="J8" s="52">
         <v>3200</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="52">
         <v>142800</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="51">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
         <v>16000</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="58">
+      <c r="I9" s="11"/>
+      <c r="J9" s="52">
         <v>3800</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="52">
         <v>143400</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="51">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46">
+        <v>20000</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="52">
+        <v>4400</v>
+      </c>
+      <c r="K10" s="52">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46">
+        <v>34000</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="52">
         <v>5000</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="58">
-        <v>4400</v>
-      </c>
-      <c r="K10" s="58">
-        <v>143400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="K11" s="52">
+        <v>144600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="23" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="G12" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="51">
-        <v>34000</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="58">
-        <v>5000</v>
-      </c>
-      <c r="K11" s="58">
-        <v>143400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27">
-        <v>1</v>
-      </c>
-      <c r="H12" s="52">
+      <c r="H12" s="47">
         <v>28000</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="52">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="52">
+        <v>145200</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="52">
+        <v>6200</v>
+      </c>
+      <c r="K13" s="52">
+        <v>145800</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
         <v>0</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
+      <c r="J14" s="52">
+        <v>6800</v>
+      </c>
+      <c r="K14" s="52">
+        <v>146400</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15"/>
       <c r="I15"/>
+      <c r="J15" s="52">
+        <v>7400</v>
+      </c>
+      <c r="K15" s="52">
+        <v>147000</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>20</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="J16" s="52">
+        <v>8000</v>
+      </c>
+      <c r="K16" s="52">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="52">
+        <v>8600</v>
+      </c>
+      <c r="K17" s="52">
+        <v>148200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="52">
+        <v>9200</v>
+      </c>
+      <c r="K18" s="52">
+        <v>148800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>16000</v>
       </c>
-      <c r="D19" s="41">
-        <v>14200</v>
-      </c>
-      <c r="E19" s="41">
-        <v>3800</v>
-      </c>
-      <c r="F19" s="41">
-        <v>1200</v>
-      </c>
-      <c r="G19" s="32">
-        <v>26800</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="D19" s="40">
+        <v>14800</v>
+      </c>
+      <c r="E19" s="40">
+        <v>3200</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31">
+        <v>28000</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="52">
+        <v>9800</v>
+      </c>
+      <c r="K19" s="52">
+        <v>149400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="52">
+        <v>10400</v>
+      </c>
+      <c r="K20" s="52">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="50" cm="1">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="52">
+        <v>11000</v>
+      </c>
+      <c r="K21" s="52">
+        <v>150600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="45" cm="1">
         <f t="array" ref="C22">MMULT(C5:G5,TRANSPOSE(C19:G19))</f>
-        <v>143400</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="33" t="s">
+        <v>142800</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="52">
+        <v>11600</v>
+      </c>
+      <c r="K22" s="52">
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="52">
+        <v>12200</v>
+      </c>
+      <c r="K23" s="52">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="52">
+        <v>12800</v>
+      </c>
+      <c r="K24" s="52">
+        <v>152400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="53" cm="1">
+      <c r="C25" s="48" cm="1">
         <f t="array" ref="C25">MMULT($C6:$G6,TRANSPOSE($C$19:$G$19))</f>
         <v>32000</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="50">
         <f>H6</f>
         <v>36000</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="36" t="s">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="52">
+        <v>13400</v>
+      </c>
+      <c r="K25" s="52">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="53" cm="1">
+      <c r="C26" s="48" cm="1">
         <f t="array" ref="C26">MMULT($C7:$G7,TRANSPOSE($C$19:$G$19))</f>
-        <v>65200</v>
-      </c>
-      <c r="D26" s="39" t="s">
+        <v>64000</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="50">
         <f>H7</f>
         <v>216000</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="52">
+        <v>14000</v>
+      </c>
+      <c r="K26" s="52">
+        <v>153600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="53" cm="1">
+      <c r="C27" s="48" cm="1">
         <f t="array" ref="C27">MMULT($C8:$G8,TRANSPOSE($C$19:$G$19))</f>
         <v>18000</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="50">
         <f t="shared" ref="E27:E31" si="0">H8</f>
         <v>18000</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="52">
+        <v>14600</v>
+      </c>
+      <c r="K27" s="52">
+        <v>154200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="53" cm="1">
+      <c r="C28" s="48" cm="1">
         <f t="array" ref="C28">MMULT($C9:$G9,TRANSPOSE($C$19:$G$19))</f>
         <v>16000</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="50">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="36" t="s">
+      <c r="J28" s="52">
+        <v>15200</v>
+      </c>
+      <c r="K28" s="52">
+        <v>154800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="53" cm="1">
+      <c r="C29" s="48" cm="1">
         <f t="array" ref="C29">MMULT($C10:$G10,TRANSPOSE($C$19:$G$19))</f>
-        <v>3800</v>
-      </c>
-      <c r="D29" s="39" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="50">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="36" t="s">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="52">
+        <v>15800</v>
+      </c>
+      <c r="K29" s="52">
+        <v>155400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="53" cm="1">
+      <c r="C30" s="48" cm="1">
         <f t="array" ref="C30">MMULT($C11:$G11,TRANSPOSE($C$19:$G$19))</f>
         <v>34000</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="50">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="37" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="52">
+        <v>16400</v>
+      </c>
+      <c r="K30" s="52">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="54" cm="1">
+      <c r="C31" s="49" cm="1">
         <f t="array" ref="C31">MMULT($C12:$G12,TRANSPOSE($C$19:$G$19))</f>
         <v>28000</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="51">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="52">
+        <v>17000</v>
+      </c>
+      <c r="K31" s="52">
+        <v>156600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="52">
+        <v>17200</v>
+      </c>
+      <c r="K32" s="52">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="52">
+        <v>17600</v>
+      </c>
+      <c r="K33" s="52">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="20" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="52">
+        <v>18200</v>
+      </c>
+      <c r="K34" s="52">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="20">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20" t="s">
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="52">
+        <v>18800</v>
+      </c>
+      <c r="K35" s="52">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="20">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20" t="s">
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="52">
+        <v>19400</v>
+      </c>
+      <c r="K36" s="52">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>3</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="52">
+        <v>20000</v>
+      </c>
+      <c r="K37" s="52">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>3.4</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>2</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="20">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20" t="s">
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>1</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
